--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,81 +40,75 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -133,51 +127,45 @@
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>many</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>really</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>documentary</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
@@ -185,12 +173,6 @@
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>dilemma</t>
   </si>
   <si>
     <t>…</t>
@@ -557,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -676,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -726,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.7666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9326923076923077</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>0.6666666666666666</v>
@@ -876,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8947368421052632</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0.6551724137931034</v>
@@ -926,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8939393939393939</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.6333333333333333</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.6111111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="L10">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8181818181818182</v>
+        <v>0.725</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.5866666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,49 +1058,49 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8181818181818182</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>9</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L12">
-        <v>9</v>
-      </c>
-      <c r="M12">
-        <v>9</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7647058823529411</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1158,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.3125</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1208,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6875</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.303030303030303</v>
+        <v>0.25</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1258,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.625</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.2592592592592592</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1308,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.1967213114754098</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1358,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5579710144927537</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.1864406779661017</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1408,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.55</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.1692307692307692</v>
+        <v>0.1375227686703097</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>54</v>
+        <v>947</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1458,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5319148936170213</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.1408450704225352</v>
+        <v>0.1060070671378092</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>61</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1508,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4782608695652174</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,16 +1529,16 @@
         <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.1293260473588342</v>
+        <v>0.05079365079365079</v>
       </c>
       <c r="L21">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1568,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>956</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1558,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4642857142857143</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.1052631578947368</v>
+        <v>0.0466867469879518</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1618,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>85</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,13 +1608,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1644,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.08833922261484099</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1668,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>258</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1676,13 +1658,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4571428571428571</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1694,259 +1676,83 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>60</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24">
+        <v>0.04390243902439024</v>
+      </c>
+      <c r="L24">
+        <v>27</v>
+      </c>
+      <c r="M24">
+        <v>28</v>
+      </c>
+      <c r="N24">
+        <v>0.96</v>
+      </c>
+      <c r="O24">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25">
+        <v>0.02707373271889401</v>
+      </c>
+      <c r="L25">
+        <v>47</v>
+      </c>
+      <c r="M25">
+        <v>47</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K26">
+        <v>0.02182284980744544</v>
+      </c>
+      <c r="L26">
+        <v>17</v>
+      </c>
+      <c r="M26">
         <v>19</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24">
-        <v>0.06626506024096386</v>
-      </c>
-      <c r="L24">
-        <v>44</v>
-      </c>
-      <c r="M24">
-        <v>44</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>14</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25">
-        <v>0.05740740740740741</v>
-      </c>
-      <c r="L25">
-        <v>31</v>
-      </c>
-      <c r="M25">
-        <v>31</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>13</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>26</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.05681818181818182</v>
-      </c>
-      <c r="L26">
-        <v>35</v>
-      </c>
-      <c r="M26">
-        <v>35</v>
-      </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="C27">
-        <v>15</v>
-      </c>
-      <c r="D27">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>63</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.04117647058823529</v>
-      </c>
-      <c r="L27">
-        <v>14</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>0.93</v>
-      </c>
-      <c r="O27">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="L28">
-        <v>9</v>
-      </c>
-      <c r="M28">
-        <v>9</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K29">
-        <v>0.02710495963091119</v>
-      </c>
-      <c r="L29">
-        <v>47</v>
-      </c>
-      <c r="M29">
-        <v>49</v>
-      </c>
-      <c r="N29">
-        <v>0.96</v>
-      </c>
-      <c r="O29">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30">
-        <v>0.02051282051282051</v>
-      </c>
-      <c r="L30">
-        <v>16</v>
-      </c>
-      <c r="M30">
-        <v>17</v>
-      </c>
-      <c r="N30">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
